--- a/biology/Botanique/Beurré_de_Mérode/Beurré_de_Mérode.xlsx
+++ b/biology/Botanique/Beurré_de_Mérode/Beurré_de_Mérode.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_M%C3%A9rode</t>
+          <t>Beurré_de_Mérode</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beurré de Mérode est le nom d'une variété de poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_M%C3%A9rode</t>
+          <t>Beurré_de_Mérode</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La poire vient de Belgique, son obtention, par M J.B. Van Mons, date de 1800[1],[2]. Son nom fait référence à la famille princière de Mérode (Belgique).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poire vient de Belgique, son obtention, par M J.B. Van Mons, date de 1800,. Son nom fait référence à la famille princière de Mérode (Belgique).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_M%C3%A9rode</t>
+          <t>Beurré_de_Mérode</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Doyenné Boussoch,
 Doyenné Boussock,
 Doyenné de Mérode,
 Double Philippe,
 Philippe Double,
-Nouvelle Boussoch[3].
+Nouvelle Boussoch.
 Sommer Diel,
 Beurré de Mérode-Westerloo,
 Beurré de Westerloo,
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_M%C3%A9rode</t>
+          <t>Beurré_de_Mérode</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,50 +601,57 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description de l'arbre
-Rameaux. Assez nombreux.
-Fruit d'amateur[4].
-Description du fruit
-Fruit : volumineux, ovoïde fortement globuleux[1].
+          <t>Description de l'arbre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rameaux. Assez nombreux.
+Fruit d'amateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Beurré_de_Mérode</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_de_M%C3%A9rode</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Description du fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fruit : volumineux, ovoïde fortement globuleux.
 Épiderme. D'un beau jaune, couvert en partie de beaux points gris et de taches fauves, parfois carminée sur la partie exposée au soleil.
 Pédicelle.
 Œil. Sorti en éperon.
 Chair. Blanc de neige, un peu grossière, semi-fondante, exempte de pierre.
 Qualité. eau suffisante, sucrée, vineuse, agréablement acidulée, rarement bien aromatique.
-Maturité.Difficile à déterminer : mi-septembre à mi-octobre[1].
-Maturité
-C'est un des fruits dont le point de maturité est des plus difficiles à déterminer. Ce qui en fait un fruit de deuxième ordre, la poire étant dépourvue d'intérêt lorsqu'elle est trop mûre[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Beurr%C3%A9_de_M%C3%A9rode</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_de_M%C3%A9rode</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le greffe plutôt sur franc, du fait de sa faible vigueur[1].
+Maturité.Difficile à déterminer : mi-septembre à mi-octobre.
 </t>
         </is>
       </c>
@@ -639,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_M%C3%A9rode</t>
+          <t>Beurré_de_Mérode</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,12 +677,84 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Maturité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un des fruits dont le point de maturité est des plus difficiles à déterminer. Ce qui en fait un fruit de deuxième ordre, la poire étant dépourvue d'intérêt lorsqu'elle est trop mûre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Beurré_de_Mérode</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_de_M%C3%A9rode</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le greffe plutôt sur franc, du fait de sa faible vigueur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Beurré_de_Mérode</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_de_M%C3%A9rode</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très bonne poire à croquer fraiche, juste avant complète maturité[1]..
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très bonne poire à croquer fraiche, juste avant complète maturité..
 </t>
         </is>
       </c>
